--- a/aar.xlsx
+++ b/aar.xlsx
@@ -30,18 +30,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1：记错了预约牙医的时间。
-2：丢下关键问题就跑了，还要测试经理给我擦屁股。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.10.13</t>
+2：丢下关键问题就跑了，还要测试经理给我擦屁股。测试经理很晚才回去。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、清楚安排所有计划和行程。
 2、遇到突发情况，分清楚事情优先级，然后做好一件事，再去做另一件事。
-3、再好的关系都不能随便折腾，这是不对的。</t>
+3、再好的关系都不能随便折腾，这是不对的。
+4、没分清楚优先级，应该早点去借手机的，早点回归争取时间，一拖再拖。很严重的错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +417,7 @@
   <cols>
     <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="46.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -431,12 +432,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66">
+    <row r="2" spans="1:3" ht="82.5">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
